--- a/Wetlands/Wetland_FluxData_2022-09-17.xlsx
+++ b/Wetlands/Wetland_FluxData_2022-09-17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Wetlands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F176C658-CD34-F341-9D35-B993782F9696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BF31C9-650F-574B-A0D3-19ED80676567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24340" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{D7565094-A54A-7244-8A84-E55352765F18}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Wetland</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Flux</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB896CD-C3C0-BF40-9468-5151CD26CA57}">
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2568,6 +2571,589 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>11</v>
+      </c>
+      <c r="B187" s="1">
+        <v>44761</v>
+      </c>
+      <c r="D187">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>11</v>
+      </c>
+      <c r="B188" s="1">
+        <v>44761</v>
+      </c>
+      <c r="D188">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>11</v>
+      </c>
+      <c r="B189" s="1">
+        <v>44761</v>
+      </c>
+      <c r="D189">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>11</v>
+      </c>
+      <c r="B190" s="1">
+        <v>44761</v>
+      </c>
+      <c r="D190">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>11</v>
+      </c>
+      <c r="B191" s="1">
+        <v>44761</v>
+      </c>
+      <c r="D191">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>12</v>
+      </c>
+      <c r="B192" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D192">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>12</v>
+      </c>
+      <c r="B193" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D193">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>12</v>
+      </c>
+      <c r="B194" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D194">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>12</v>
+      </c>
+      <c r="B195" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D195">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>12</v>
+      </c>
+      <c r="B196" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D196">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>12</v>
+      </c>
+      <c r="B197" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D197">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>12</v>
+      </c>
+      <c r="B198" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D198">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>12</v>
+      </c>
+      <c r="B199" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D199">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D200">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D201">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D202">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D203">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D204">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D205">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D206">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D207">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>11</v>
+      </c>
+      <c r="B208" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D208">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>11</v>
+      </c>
+      <c r="B209" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D209">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>11</v>
+      </c>
+      <c r="B210" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D210">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>11</v>
+      </c>
+      <c r="B211" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D211">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>11</v>
+      </c>
+      <c r="B212" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D212">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D213">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D214">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D215">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D216">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D217">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D218">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D219">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D220">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D221">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D222">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D223">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D224">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D225">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D226">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D227">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>3</v>
+      </c>
+      <c r="B228" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D228">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D229">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>3</v>
+      </c>
+      <c r="B230" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D230">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>3</v>
+      </c>
+      <c r="B231" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D231">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>3</v>
+      </c>
+      <c r="B232" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D232">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>3</v>
+      </c>
+      <c r="B233" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D233">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D234">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>3</v>
+      </c>
+      <c r="B235" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D235">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>3</v>
+      </c>
+      <c r="B236" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D236">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>3</v>
+      </c>
+      <c r="B237" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D237">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>12</v>
+      </c>
+      <c r="B238" s="1">
+        <v>44769</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>5</v>
+      </c>
+      <c r="B239" s="1">
+        <v>44769</v>
+      </c>
+      <c r="D239" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
